--- a/documents/Que Expenses.xlsx
+++ b/documents/Que Expenses.xlsx
@@ -2,21 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/619d7d6d1699b471/Employment/Que/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{A8E907AD-310D-4D93-A1E3-3AEF400145A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FDB41C0-426C-4BC2-9EAF-D8E35C91417B}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="8_{A8E907AD-310D-4D93-A1E3-3AEF400145A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{509F7F22-B27B-4AFE-9920-1CA269559A4E}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="1455" windowWidth="16980" windowHeight="12675" xr2:uid="{812DAD74-0101-4B63-9F47-2E0FDFE8A18A}"/>
+    <workbookView xWindow="2820" yWindow="780" windowWidth="12060" windowHeight="15165" activeTab="1" xr2:uid="{812DAD74-0101-4B63-9F47-2E0FDFE8A18A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Items" sheetId="1" r:id="rId1"/>
-    <sheet name="Analysis" sheetId="2" r:id="rId2"/>
+    <sheet name="Actual" sheetId="1" r:id="rId1"/>
+    <sheet name="Estimated" sheetId="3" r:id="rId2"/>
+    <sheet name="Analysis" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -61,6 +62,27 @@
   </si>
   <si>
     <t>Quantity</t>
+  </si>
+  <si>
+    <t>Other prototype parts</t>
+  </si>
+  <si>
+    <t>Manufacturability Consultation (2) (estimate)</t>
+  </si>
+  <si>
+    <t>PCB Design</t>
+  </si>
+  <si>
+    <t>PCB Fabrication (10) (estimate)</t>
+  </si>
+  <si>
+    <t>Small batch manufacturing of device</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Factor of Safety</t>
   </si>
 </sst>
 </file>
@@ -435,7 +457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6584F9CA-5326-4353-BBBD-1E4190FB1B06}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -478,6 +500,83 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AFE7F18-4A70-4B0F-9AC1-9039719BAE51}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <f>SUM(B2:B7)</f>
+        <v>2550</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B23D92-602E-4C74-9034-599A9C0DB124}">
   <dimension ref="A2"/>
   <sheetViews>

--- a/documents/Que Expenses.xlsx
+++ b/documents/Que Expenses.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/619d7d6d1699b471/Employment/Que/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="8_{A8E907AD-310D-4D93-A1E3-3AEF400145A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{509F7F22-B27B-4AFE-9920-1CA269559A4E}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="8_{A8E907AD-310D-4D93-A1E3-3AEF400145A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3781C656-F46B-40FC-AAA5-C4C1358873BE}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="780" windowWidth="12060" windowHeight="15165" activeTab="1" xr2:uid="{812DAD74-0101-4B63-9F47-2E0FDFE8A18A}"/>
+    <workbookView xWindow="3660" yWindow="2790" windowWidth="21600" windowHeight="11235" xr2:uid="{812DAD74-0101-4B63-9F47-2E0FDFE8A18A}"/>
   </bookViews>
   <sheets>
     <sheet name="Actual" sheetId="1" r:id="rId1"/>
-    <sheet name="Estimated" sheetId="3" r:id="rId2"/>
+    <sheet name="Initial Estimate" sheetId="3" r:id="rId2"/>
     <sheet name="Analysis" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Cost ($)</t>
   </si>
   <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -83,6 +80,39 @@
   </si>
   <si>
     <t>Factor of Safety</t>
+  </si>
+  <si>
+    <t>ABS Filament</t>
+  </si>
+  <si>
+    <t>TPU Filament</t>
+  </si>
+  <si>
+    <t>Valves</t>
+  </si>
+  <si>
+    <t>Cotton Wicks</t>
+  </si>
+  <si>
+    <t>Differently Scented Essential Oil</t>
+  </si>
+  <si>
+    <t>Lavender Essential Oil</t>
+  </si>
+  <si>
+    <t>Silicone</t>
+  </si>
+  <si>
+    <t>Mold Release Spray</t>
+  </si>
+  <si>
+    <t>Pumps</t>
+  </si>
+  <si>
+    <t>Wires</t>
+  </si>
+  <si>
+    <t>Batch 1</t>
   </si>
 </sst>
 </file>
@@ -118,9 +148,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,14 +488,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6584F9CA-5326-4353-BBBD-1E4190FB1B06}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -474,7 +508,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -483,15 +517,66 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>45331</v>
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -503,7 +588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AFE7F18-4A70-4B0F-9AC1-9039719BAE51}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -519,7 +604,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>400</v>
@@ -527,7 +612,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>250</v>
@@ -535,7 +620,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>400</v>
@@ -543,7 +628,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>500</v>
@@ -551,12 +636,12 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>1000</v>
@@ -564,7 +649,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <f>SUM(B2:B7)</f>
@@ -578,23 +663,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B23D92-602E-4C74-9034-599A9C0DB124}">
-  <dimension ref="A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/documents/Que Expenses.xlsx
+++ b/documents/Que Expenses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/619d7d6d1699b471/Employment/Que/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="8_{A8E907AD-310D-4D93-A1E3-3AEF400145A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3781C656-F46B-40FC-AAA5-C4C1358873BE}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="8_{A8E907AD-310D-4D93-A1E3-3AEF400145A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8F2D2E7-EE18-4F4D-BA71-6A10A9EE3AE8}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="2790" windowWidth="21600" windowHeight="11235" xr2:uid="{812DAD74-0101-4B63-9F47-2E0FDFE8A18A}"/>
+    <workbookView xWindow="1785" yWindow="1185" windowWidth="19470" windowHeight="13875" xr2:uid="{812DAD74-0101-4B63-9F47-2E0FDFE8A18A}"/>
   </bookViews>
   <sheets>
     <sheet name="Actual" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -82,12 +82,6 @@
     <t>Factor of Safety</t>
   </si>
   <si>
-    <t>ABS Filament</t>
-  </si>
-  <si>
-    <t>TPU Filament</t>
-  </si>
-  <si>
     <t>Valves</t>
   </si>
   <si>
@@ -113,6 +107,15 @@
   </si>
   <si>
     <t>Batch 1</t>
+  </si>
+  <si>
+    <t>PETG Filament</t>
+  </si>
+  <si>
+    <t>Connectors</t>
+  </si>
+  <si>
+    <t>Batch 2</t>
   </si>
 </sst>
 </file>
@@ -488,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6584F9CA-5326-4353-BBBD-1E4190FB1B06}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,13 +528,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -539,44 +542,49 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>21</v>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>22</v>
+      <c r="A11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/documents/Que Expenses.xlsx
+++ b/documents/Que Expenses.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/619d7d6d1699b471/Employment/Que/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="8_{A8E907AD-310D-4D93-A1E3-3AEF400145A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8F2D2E7-EE18-4F4D-BA71-6A10A9EE3AE8}"/>
+  <xr:revisionPtr revIDLastSave="291" documentId="8_{A8E907AD-310D-4D93-A1E3-3AEF400145A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBE41BE9-32DB-43F4-87C1-A152BB745125}"/>
   <bookViews>
-    <workbookView xWindow="1785" yWindow="1185" windowWidth="19470" windowHeight="13875" xr2:uid="{812DAD74-0101-4B63-9F47-2E0FDFE8A18A}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{812DAD74-0101-4B63-9F47-2E0FDFE8A18A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Actual" sheetId="1" r:id="rId1"/>
-    <sheet name="Initial Estimate" sheetId="3" r:id="rId2"/>
-    <sheet name="Analysis" sheetId="2" r:id="rId3"/>
+    <sheet name="Order 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Order 2" sheetId="4" r:id="rId2"/>
+    <sheet name="Initial Estimate" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
   <si>
     <t>Date</t>
   </si>
@@ -46,83 +46,180 @@
     <t>Item</t>
   </si>
   <si>
-    <t>Description</t>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Cost Per Item ($)</t>
+  </si>
+  <si>
+    <t>Cost ($)</t>
+  </si>
+  <si>
+    <t>Vendor</t>
   </si>
   <si>
     <t>Link</t>
   </si>
   <si>
-    <t>Cost ($)</t>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Model</t>
   </si>
   <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>Quantity</t>
+    <t>Amazon Cart</t>
+  </si>
+  <si>
+    <t>Amazon.com Shopping Cart</t>
+  </si>
+  <si>
+    <t>PETG Filament</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Amazon.com: CREALITY PETG Filament 1.75mm 3D Printer Filament, 1kg (2.2lb) Neatly Wound Spool, Dimensional Accuracy ±0.03mm, 2024 Latest Batch, Fit for Ender, Bambu Lab, Anycubic,ELEGOO FDM Printers, Black : Industrial &amp; Scientific</t>
+  </si>
+  <si>
+    <t>Creality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resists sticking to essential oil, hygenic, strong, UV resistant, nontoxic, odorless. 
+Printing with higher quality plastics (beyond PETG) requires 3D printer modifications. </t>
+  </si>
+  <si>
+    <t>TPU Filament</t>
+  </si>
+  <si>
+    <t>Amazon.com: HATCHBOX 1.75mm Yellow TPU 3D Printer Filament Shore 95A, 1 KG Spool, Dimensional Accuracy +/- 0.03 mm, 3D Printing Filament : Industrial &amp; Scientific</t>
+  </si>
+  <si>
+    <t>Rapid, cheap prototyping of case prior to molding silicone</t>
+  </si>
+  <si>
+    <t>Cotton Wicks</t>
+  </si>
+  <si>
+    <t>Amazon.com: Cotton Filter Sticks 16-Pack Cotton Filter Refill Sticks Wick Replacement Sponge Filters for Portable nanum Car Humidifier essential oil Diffuser Wicks : Appliances</t>
+  </si>
+  <si>
+    <t>Designed to hold essential oils</t>
+  </si>
+  <si>
+    <t>Lavender Essential Oil</t>
+  </si>
+  <si>
+    <t>Amazon.com: Handcraft Blends Lavender Essential Oil - Huge 4 Fl Oz - 100% Pure and Natural - Premium Grade with Glass Dropper : Health &amp; Household</t>
+  </si>
+  <si>
+    <t>Multiple essential oils to test switching between scents</t>
+  </si>
+  <si>
+    <t>Peppermint Essential Oil</t>
+  </si>
+  <si>
+    <t>Amazon.com: Brooklyn Botany Peppermint Essential Oil - Huge 4 Fl Oz - 100% Pure and Natural - Premium Grade with Dropper - for Aromatherapy and Diffuser : Health &amp; Household</t>
+  </si>
+  <si>
+    <t>Essential oil differ significantly between scents to test scent changing and retention in the housing.</t>
+  </si>
+  <si>
+    <t>Patchouli Essential Oil</t>
+  </si>
+  <si>
+    <t>Amazon.com: HIQILI Patchouli Essential Oil 100ML, Pure Natural Patchouli Oil for Perfume Making, Diffuser - 3.38 Fl Oz : Health &amp; Household</t>
+  </si>
+  <si>
+    <t>2 positive scents and 1 negative scent</t>
+  </si>
+  <si>
+    <t>26 AWG Stranded Wires</t>
+  </si>
+  <si>
+    <t>26 AWG Stranded Electrical Wire 26 Gauge Tinned Copper Wires Flexible Silicone Electric Hookup Wire Kit OD:1.5mm, 5 Colors 32.8ft/10m Each, DIY/Automotive/Home/Power Wiring Kit by Sznnzd™: Amazon.com: Tools &amp; Home Improvement</t>
+  </si>
+  <si>
+    <t>For running into the pendant from outside prior to obtaining the PCB and battery</t>
+  </si>
+  <si>
+    <t>Microfans</t>
+  </si>
+  <si>
+    <t>DigiKey</t>
+  </si>
+  <si>
+    <t>AGA135 Pelonis Technologies | Fans, Thermal Management | DigiKey Marketplace</t>
+  </si>
+  <si>
+    <t>Pelonis</t>
+  </si>
+  <si>
+    <t>AGA135</t>
+  </si>
+  <si>
+    <t>Smallest fan that I could find. Low power, high flow rate, very quiet</t>
+  </si>
+  <si>
+    <t>Arduino Nano BLE 33</t>
+  </si>
+  <si>
+    <t>Arduino</t>
+  </si>
+  <si>
+    <t>Arduino Nano 33 BLE Sense Rev2 — Arduino Online Shop</t>
+  </si>
+  <si>
+    <t>Has very similar features to the PCB that will be needed</t>
+  </si>
+  <si>
+    <t>Total (no tax)</t>
+  </si>
+  <si>
+    <t>Silicone</t>
+  </si>
+  <si>
+    <t>For the case</t>
+  </si>
+  <si>
+    <t>Yellow silicone dye</t>
+  </si>
+  <si>
+    <t>Mold Release Spray</t>
+  </si>
+  <si>
+    <t>For releasing the silicone from the moulding</t>
+  </si>
+  <si>
+    <t>PCB Design</t>
+  </si>
+  <si>
+    <t>PCB Fabrication (10) (estimate)</t>
+  </si>
+  <si>
+    <t>Manufacturability Consultation (2) (estimate)</t>
   </si>
   <si>
     <t>Other prototype parts</t>
   </si>
   <si>
-    <t>Manufacturability Consultation (2) (estimate)</t>
-  </si>
-  <si>
-    <t>PCB Design</t>
-  </si>
-  <si>
-    <t>PCB Fabrication (10) (estimate)</t>
-  </si>
-  <si>
     <t>Small batch manufacturing of device</t>
   </si>
   <si>
+    <t>Factor of Safety</t>
+  </si>
+  <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>Factor of Safety</t>
-  </si>
-  <si>
-    <t>Valves</t>
-  </si>
-  <si>
-    <t>Cotton Wicks</t>
-  </si>
-  <si>
-    <t>Differently Scented Essential Oil</t>
-  </si>
-  <si>
-    <t>Lavender Essential Oil</t>
-  </si>
-  <si>
-    <t>Silicone</t>
-  </si>
-  <si>
-    <t>Mold Release Spray</t>
-  </si>
-  <si>
-    <t>Pumps</t>
-  </si>
-  <si>
-    <t>Wires</t>
-  </si>
-  <si>
-    <t>Batch 1</t>
-  </si>
-  <si>
-    <t>PETG Filament</t>
-  </si>
-  <si>
-    <t>Connectors</t>
-  </si>
-  <si>
-    <t>Batch 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,16 +227,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -147,18 +270,174 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -491,19 +770,356 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6584F9CA-5326-4353-BBBD-1E4190FB1B06}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" customWidth="1"/>
+    <col min="7" max="7" width="43.42578125" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" customWidth="1"/>
+    <col min="10" max="10" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="30.75" thickBot="1">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="B2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" ht="84.75" customHeight="1">
+      <c r="A3" s="1"/>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>14.99</v>
+      </c>
+      <c r="E3" s="5">
+        <f>D3*C3</f>
+        <v>14.99</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="66" customHeight="1">
+      <c r="A4" s="1"/>
+      <c r="B4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>30.99</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" ref="E4:E11" si="0">D4*C4</f>
+        <v>30.99</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="66" customHeight="1">
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>6.99</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="0"/>
+        <v>6.99</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="57.75">
+      <c r="B6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>9.99</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="0"/>
+        <v>9.99</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="57.75">
+      <c r="B7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>9.99</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>9.99</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="43.5">
+      <c r="B8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="87">
+      <c r="B9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>12.99</v>
+      </c>
+      <c r="E9" s="5">
+        <f>D9*C9</f>
+        <v>12.99</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="29.25">
+      <c r="B10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="7">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7">
+        <v>17.86</v>
+      </c>
+      <c r="E10" s="7">
+        <f t="shared" si="0"/>
+        <v>53.58</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="29.25">
+      <c r="B11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="9">
+        <v>2</v>
+      </c>
+      <c r="D11" s="9">
+        <v>32.4</v>
+      </c>
+      <c r="E11" s="9">
+        <f t="shared" si="0"/>
+        <v>64.8</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12">
+        <f>SUM(E3:E11)</f>
+        <v>214.2</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G10" r:id="rId1" display="https://www.digikey.com/en/products/detail/pelonis-technologies/AGA135/14296475" xr:uid="{FD5E9505-5C95-406D-ACA7-6F6EC7BF48A2}"/>
+    <hyperlink ref="G3" r:id="rId2" display="https://www.amazon.com/CREALITY-PETG-Filament-Dimensional-Black/dp/B0CRLGHWZF/ref=sr_1_10?crid=L6FXM45Y11CJ&amp;dib=eyJ2IjoiMSJ9.7h8391QwQ0p42Tw7dm0SBMdeK6b-cu2fG1YazoK1b5nSLDehSevVYcBI4Ttb8dr0SmblSbqPkdnAcUKKdBQgXpwZrwVEl2xqz1Yk1R-tFgjk3nJAItUVyjQsVqEYo766k62XYr8a6_Xp7tXnFV3R1nPBLYnog7t2TOmLkqEQ38yx4mGO8jUjdJg_Zu8ox-YlEr6q5lEyjUJ-T996rm4Icb9Tj4Lvo-7mTQ-qiXwj7EQ.zQrr7lFy0KVw0w6etXCkqy_KMRruTSZJ8-_vUrQw3gQ&amp;dib_tag=se&amp;keywords=creality%2Bender%2B3%2Bfilament%2BPETG&amp;qid=1709515677&amp;sprefix=creality%2Bender%2B3%2Bfilament%2Bpetg%2Caps%2C125&amp;sr=8-10&amp;th=1" xr:uid="{4F3592AE-5FA9-421E-B751-E1A2D80ECE43}"/>
+    <hyperlink ref="G5" r:id="rId3" display="https://www.amazon.com/BINHAI-Replacement-Portable-Humidifier-Essential/dp/B07Q5LVL2V/ref=sr_1_2?crid=193H0Y5YPWVKO&amp;dib=eyJ2IjoiMSJ9.YA3kGbTmgQvI1q_X_Bj3W3W_2ZyzgIEqDnhb9Db2BZr22j6zBLUHeBx_Ii2xCpzJskE4Cwd1snzFd2Fkh4eC0BYTyvD2VsMO6Xwus39erWAsb9h6WGwd6yEiLhlS5a2vgewR7vavZCXirX_yln24h7xSCseHNe9We2gb-pRhE4rTPbsoRpahB03mXfrkp--A7mptvMwq9btEbqkkCRWdvms9YFsBNn8LWhXfaGOLquoIHwi6JbkTqfd6vtpp0QKh0Jk17f7Sfxo48aEABfOmssFkiKjj_s08jLU1vkFSEAA.BAKwxo7v3J-AbYpbXyufyhN_VMRURwAqTbH_2w50ZeI&amp;dib_tag=se&amp;keywords=essential+oil+wick&amp;qid=1709522788&amp;sprefix=essential+oil+wick+%2Caps%2C317&amp;sr=8-2" xr:uid="{2D77B06E-017D-4E5A-90AF-F6E294AD5189}"/>
+    <hyperlink ref="G6" r:id="rId4" display="https://www.amazon.com/Handcraft-Lavender-Essential-Oil-Therapeutic/dp/B075817VBP/ref=sr_1_6?crid=1J4BY33YJ4H9A&amp;dib=eyJ2IjoiMSJ9.IE_7lVHggPzBPFaet-evywdsMFcX4EahKfQI_n8HvFeQ7Gi4WfelPxYGW0etGgCryW2sFhNBsag7XedMxv7avHgEpOnoFTH4Mb-J9Ya375RfFXe0nwU-WWI0e00zV3RNqxyAo_MzjgpOrf5thM6sBWQxfidSu5pi6mEZcd8sTKfARA-UgiSOb8cpPqDIdwzA2o3km8VpZQGkdawZ4NM3yPMm5PMx1Lc2n95Wv5psogRTwyD2CQOgRccS_z2bqBLlC-8rTctAU3dY8lq52x9V1XYN0Y3w70zUC2Qgb9lu-ug.GdLmuWNwdbEoxDrOsy0Q8QUzrHVGd9QJsVZaqXWBZ2Q&amp;dib_tag=se&amp;keywords=lavender%2Bessential%2Boil&amp;qid=1709530849&amp;sprefix=lavender%2Bessential%2Boil%2Caps%2C128&amp;sr=8-6&amp;th=1" xr:uid="{902B7C13-2BCF-4470-A953-C98E5E5F1803}"/>
+    <hyperlink ref="G7" r:id="rId5" display="https://www.amazon.com/Brooklyn-Botany-Peppermint-Essential-Oil/dp/B088SYMZGG/ref=sr_1_6?crid=BMELM1N92R7S&amp;dib=eyJ2IjoiMSJ9.ZOV8U-YmF4PvxTCSz506My_LiazdL87Jmxyn6bHPpvPpvd2GuwULEacbwGnXdE18DeImootCGtzATNqiX7myIKd3mVvmOdJQKIuxAM213azxCG5XUZMJlVh8Ot48Nxy96SzkjyqGnV-itBHbFAlbujMsy-I5QeAa2TXpXRE-OLn5GotDaoZ5M0OHBlmG9oC5WQ0993BFje5X3RTE2eMcoPe4JtUk9i2996NDrio99rBCHm-Q7whCAUQGLnzKhUI8ADUq5PIMESnmzZKK7pTN3pNmu-uGGXK9F28nX-YPtto.fdKFmW0JbUnunRgeNbU4Uc90YmgbblykmeHAF6wsjd8&amp;dib_tag=se&amp;keywords=peppermint%2Bessential%2Boil&amp;qid=1709530945&amp;sprefix=peppermin%2Caps%2C223&amp;sr=8-6&amp;th=1" xr:uid="{CD757412-901A-484E-A916-761D45FA0A07}"/>
+    <hyperlink ref="G8" r:id="rId6" display="https://www.amazon.com/Patchouli-Essential-Natural-Diffuser-Making-100ml/dp/B08ZLKB98C/ref=sr_1_5?crid=B13FFNT2TKAB&amp;dib=eyJ2IjoiMSJ9.7FUFTqYZ8ZJ2fNvQJtsrBmBAb29w23q7zrRjzquxEtn8oWnh5ZufcWiHgDV_vmUx_utTMWnIaKZ2vGM-VZRyTckUtc9z4TxmRXjQ1iW9Y7LxqdIbPM6rYGxTxSdAyMgN763S5NCJ9o96OZZ9u-nRYbJIKrVQMHFclhghlIVfbYnpSsqMWobSVNc1INsNTO1NB6tVIw2iHV8ey67sqoeqslemPydIMuWhTRjdMSwCJKwggghi5tdFwdoEPmLvGE00zLubN0GAicwcrm0rLSpasvWHM-1oX5M2l7tqk4f82So.QKFG4Yi0KlCjSSUXqW1i-V3N_aXl4ZZU2vqy81M6Bz8&amp;dib_tag=se&amp;keywords=patchouli%2Bessential%2Boil&amp;qid=1709530995&amp;sprefix=patc%2Caps%2C137&amp;sr=8-5&amp;th=1" xr:uid="{F1560807-27EE-46A3-BA2A-7FFEE344748F}"/>
+    <hyperlink ref="G4" r:id="rId7" display="https://www.amazon.com/HATCHBOX-Printer-Filament-Dimensional-Accuracy/dp/B07P18ZXHN/ref=sr_1_6?crid=1IDOM8HOIES6B&amp;dib=eyJ2IjoiMSJ9.UqICd_P8EugGUVsBEybARFcl9-x6cnvaGPEIB9T6hj8ZZ2iWRaYyt7qtwsXfb2WBw5hrYtgqKKCBp8OAn30ezGEqsJNCB88Y64M0LelsqG0v9S3A9jonIqp_KZeW4iTIt7VlnaQwegiV86mX0IruSAWG-qRnYk2lV_aSpYFRDc1obh9G1ZMtUrDa6Jalzr2zrTMa6MvznxSoSRfLKVbwcv3a10TUz3lPyUMOHC9GR3Y.YEr-WeCCio5mrhp--FewRrP1ICfMwUTQBaSR_F0xHko&amp;dib_tag=se&amp;keywords=yellow%2BTPU%2Bfilament&amp;qid=1709533322&amp;sprefix=yellow%2Btpu%2Bfilament%2B%2Caps%2C115&amp;sr=8-6&amp;th=1" xr:uid="{189247D4-DA88-471B-848C-A5FEF40359D6}"/>
+    <hyperlink ref="G11" r:id="rId8" display="https://store-usa.arduino.cc/products/nano-33-ble-sense-rev2?selectedStore=us" xr:uid="{5683D136-64C5-4A10-B939-61CD916A98AD}"/>
+    <hyperlink ref="G9" r:id="rId9" display="https://www.amazon.com/Stranded-Electrical-Flexible-Silicone-Electric/dp/B09Y99PMRM/ref=sr_1_3?crid=39NYWRU4SFTP1&amp;dib=eyJ2IjoiMSJ9.Ug2yrEHpEPKCoR-7M-kcjGaSA-_0qnrlkbvzCjGkM7JiyvdK8wmnQjnfWzM49GtHmKaSwsNUWkLazA1Tno0GvPj-NIwBKcKcl0ULB_BCLBa04ETV5pfV2XjYK3Bwep6dJubjwTpNhQeu-Ouy4AhfyyAbB3PKtaQLmcjyvA2RKPKR1G2csmvXsw_dfspx04LLSU2c_5FqSp44j0ZBxXedt1Av2kAr7BAhh5k-Mqh8SY1N_lOyyYtKjCyWGiHFsOsCyFKTxjvapKVz7tqzuMHEe0XQ6I-80yYwn2RaCS3PGDU.XrOUNVPZOfSPncZDO5_NLtjqFtTclXgU9UJphZJ0MjI&amp;dib_tag=se&amp;keywords=AWG%2B26%2Bwire&amp;qid=1709536067&amp;sprefix=awg%2B26%2Bwire%2Caps%2C160&amp;sr=8-3&amp;th=1" xr:uid="{77E50812-1777-4390-9AA0-7D64E7FD25A0}"/>
+    <hyperlink ref="G2" r:id="rId10" display="https://www.amazon.com/gp/cart/view.html?ref_=nav_cart" xr:uid="{0F3FA8F0-A26B-4BC5-A9DA-6E7A663583DB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B53384D-6D0C-4B86-B749-7E022DC8833D}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -511,80 +1127,52 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>24</v>
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="45">
+      <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30.75" customHeight="1">
+      <c r="B4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -592,7 +1180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AFE7F18-4A70-4B0F-9AC1-9039719BAE51}">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -600,64 +1188,64 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="41.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="B1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="B2">
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="B3">
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="B4">
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="B5">
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="B7">
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="B8">
         <f>SUM(B2:B7)</f>
@@ -667,21 +1255,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B23D92-602E-4C74-9034-599A9C0DB124}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>